--- a/Data/BG Richness.xlsx
+++ b/Data/BG Richness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E0AB77-3583-47E9-B751-E405A0CD65B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136201F-BCA0-41B6-A755-8DC42E50D18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{4E47579D-0CCC-477C-985E-53D60BE9209F}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:XFD339"/>
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/BG Richness.xlsx
+++ b/Data/BG Richness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136201F-BCA0-41B6-A755-8DC42E50D18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFC950F-CF01-4341-B843-A703B83C9260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{4E47579D-0CCC-477C-985E-53D60BE9209F}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD8FFA2-AA27-4E98-845F-885381F4292D}">
   <dimension ref="A1:S150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>

--- a/Data/BG Richness.xlsx
+++ b/Data/BG Richness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\GitHub\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD24C48-C24F-4BD7-9A45-2B17ABCAA8DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91790CF-B22A-4349-A85E-DAEC76E81101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{4E47579D-0CCC-477C-985E-53D60BE9209F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="201">
   <si>
     <t>BlockPlotCodeYear</t>
   </si>
@@ -628,6 +628,9 @@
   <si>
     <t>CNT cut removes CNT plot 1-8 and CNT after 2020</t>
   </si>
+  <si>
+    <t>Treatment</t>
+  </si>
 </sst>
 </file>
 
@@ -990,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84730950-4FA2-4B7F-84BC-55E98606180B}">
   <dimension ref="A1:V399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>

--- a/Data/BG Richness.xlsx
+++ b/Data/BG Richness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\GitHub\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A407DA2-B9FD-4A04-8248-DB7C6C26860C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCD9693-CA1A-4385-B983-DEB294670D41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="1" xr2:uid="{4E47579D-0CCC-477C-985E-53D60BE9209F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{4E47579D-0CCC-477C-985E-53D60BE9209F}"/>
   </bookViews>
   <sheets>
     <sheet name="CUT" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="212">
   <si>
     <t>BlockPlotCodeYear</t>
   </si>
@@ -628,6 +628,42 @@
   <si>
     <t>NativeRichness</t>
   </si>
+  <si>
+    <t>NonnativeRichness</t>
+  </si>
+  <si>
+    <t>NativeForbRichness</t>
+  </si>
+  <si>
+    <t>NativeGrassRichness</t>
+  </si>
+  <si>
+    <t>NativePerennialTreeRichness</t>
+  </si>
+  <si>
+    <t>NativePerennialShrubRichness</t>
+  </si>
+  <si>
+    <t>NativePerennialCactusRichness</t>
+  </si>
+  <si>
+    <t>NativePerennialForbRichness</t>
+  </si>
+  <si>
+    <t>NativePerennialGrassRichness</t>
+  </si>
+  <si>
+    <t>NativeAnnualForbRichness</t>
+  </si>
+  <si>
+    <t>NativeAnnualGrassRichness</t>
+  </si>
+  <si>
+    <t>NonnativePerennialRichness</t>
+  </si>
+  <si>
+    <t>NonnativeAnnualRichness</t>
+  </si>
 </sst>
 </file>
 
@@ -990,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84730950-4FA2-4B7F-84BC-55E98606180B}">
   <dimension ref="A1:V399"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:V1"/>
     </sheetView>
   </sheetViews>
@@ -26119,8 +26155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E517F87-3685-4506-95C8-06F3441EFA73}">
   <dimension ref="A1:V403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="F1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26161,40 +26197,40 @@
         <v>186</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">

--- a/Data/BG Richness.xlsx
+++ b/Data/BG Richness.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\GitHub\Buffelgrass\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCD9693-CA1A-4385-B983-DEB294670D41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE047B34-B4CF-4192-ACC0-81FDE1F1569F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{4E47579D-0CCC-477C-985E-53D60BE9209F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="200">
   <si>
     <t>BlockPlotCodeYear</t>
   </si>
@@ -590,42 +590,6 @@
     <t>NativeAnnualRichness</t>
   </si>
   <si>
-    <t>NonnativeRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativeForbRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativeGrassRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativePerennialTreeRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativePerennialShrubRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativePerennialCactusRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativePerennialForbRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativePerennialGrassRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativeAnnualForbRichness(Living)</t>
-  </si>
-  <si>
-    <t>NativeAnnualGrassRichness(Living)</t>
-  </si>
-  <si>
-    <t>NonnativePerennialRichness(Living)</t>
-  </si>
-  <si>
-    <t>NonnativeAnnualRichness(Living)</t>
-  </si>
-  <si>
     <t>NativeRichness</t>
   </si>
   <si>
@@ -1036,7 +1000,7 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>185</v>
@@ -1068,40 +1032,40 @@
         <v>186</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -26155,8 +26119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E517F87-3685-4506-95C8-06F3441EFA73}">
   <dimension ref="A1:V403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="F1:V1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26188,7 +26152,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>185</v>
@@ -26197,40 +26161,40 @@
         <v>186</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
